--- a/viz/dataset.xlsx
+++ b/viz/dataset.xlsx
@@ -5,17 +5,23 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tevytunsay/Documents/GitFolder/KC-portfolio/viz/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tevytunsay/Documents/GitFolder/Kimchoeun/viz/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C215EA7-D309-B143-8D14-25F47A111781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03E9F0C8-4F03-B442-8F39-4C24A0B70506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="520" yWindow="800" windowWidth="28040" windowHeight="17440" xr2:uid="{0EA8BF6A-7E55-BF45-8FC7-A4FD04631818}"/>
+    <workbookView xWindow="520" yWindow="800" windowWidth="28040" windowHeight="17440" activeTab="3" xr2:uid="{0EA8BF6A-7E55-BF45-8FC7-A4FD04631818}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Export" sheetId="1" r:id="rId1"/>
+    <sheet name="Growth Sector %" sheetId="3" r:id="rId2"/>
+    <sheet name="Growth TPF" sheetId="4" r:id="rId3"/>
+    <sheet name="Logistics" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <externalReferences>
+    <externalReference r:id="rId5"/>
+  </externalReferences>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,8 +40,78 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Kimchoeun</author>
+  </authors>
+  <commentList>
+    <comment ref="D17" authorId="0" shapeId="0" xr:uid="{BFE32301-4F1C-2A46-96D2-7C1DA79E4270}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Kimchoeun:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+To check these values again
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Kimchoeun</author>
+  </authors>
+  <commentList>
+    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{32FE5DAD-AAF9-124B-B276-B5ABF8CF9CD4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Kimchoeun:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+To check these values again
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t xml:space="preserve">The export volume from Cambodia has increased from about 13 billion USD in 2018 to almost 21 billion USD in 2022. </t>
   </si>
@@ -83,17 +159,108 @@
   </si>
   <si>
     <t>Source: Trademap 2023</t>
+  </si>
+  <si>
+    <t>Cambodia's growth model has not really changed. Growth has been mainly due to newly injected capital (possibly including money laundering) which has not been productively allocated</t>
+  </si>
+  <si>
+    <t>Production factors</t>
+  </si>
+  <si>
+    <t>2012-16</t>
+  </si>
+  <si>
+    <t>2017-19 (pre-Covid)</t>
+  </si>
+  <si>
+    <t>2017-22 (inc. Covid)</t>
+  </si>
+  <si>
+    <t>Labour quality</t>
+  </si>
+  <si>
+    <t>Labour quantity</t>
+  </si>
+  <si>
+    <t>Capital</t>
+  </si>
+  <si>
+    <t>TFP</t>
+  </si>
+  <si>
+    <t>Source: WB's SCD 2023</t>
+  </si>
+  <si>
+    <t>In term of contribution to growth by sector, the almost-collapsed tourism sector has resulted in higher manufacturing share of contribution to growth, but agriculture still stayed at 4% - Same as before the Covid</t>
+  </si>
+  <si>
+    <t>Sector</t>
+  </si>
+  <si>
+    <t>2017-19</t>
+  </si>
+  <si>
+    <t>2017-22</t>
+  </si>
+  <si>
+    <t>Statistical discrepancy</t>
+  </si>
+  <si>
+    <t>Agriculture</t>
+  </si>
+  <si>
+    <t>Services</t>
+  </si>
+  <si>
+    <t>Other industry (including construction)</t>
+  </si>
+  <si>
+    <t>Manufacturing</t>
+  </si>
+  <si>
+    <t>Despite some improvement, logistics cost in Cambodia is still one of the highest in the region.</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Cost of logistics as % of GDP (2020)</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Cambodia (2020)</t>
+  </si>
+  <si>
+    <t>Cambodia (2015)</t>
+  </si>
+  <si>
+    <t>Source:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -137,6 +304,41 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -160,12 +362,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -175,16 +381,96 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="5" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="7">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
+    <cellStyle name="Neutral 2" xfId="4" xr:uid="{110EDCA9-866F-9B41-82E0-DF664A35B3B2}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="5" xr:uid="{8BA07541-0ECC-D14E-BB0D-157CB1D3E699}"/>
+    <cellStyle name="Per cent" xfId="3" builtinId="5"/>
+    <cellStyle name="Per cent 2" xfId="6" xr:uid="{D78660EE-2BC3-B742-83F6-DB9DEC9CD32E}"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="27">
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="0.0%"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -198,10 +484,202 @@
         <vertAlign val="baseline"/>
         <sz val="10"/>
         <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="168" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -226,7 +704,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="168" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -250,7 +728,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="168" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -275,7 +753,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="168" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -299,7 +777,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="168" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -324,7 +802,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="168" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -348,7 +826,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="168" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -373,7 +851,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="168" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -397,7 +875,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="168" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -406,23 +884,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="168" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -435,14 +896,6 @@
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
         </patternFill>
       </fill>
     </dxf>
@@ -509,19 +962,210 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>82550</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDACE722-B480-1145-B6EF-D1A3FE702FC7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="82550" y="1739900"/>
+          <a:ext cx="4438650" cy="1727200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>TFP stands for Total Factor Productivity. It represents the efficiency with which labor and capital inputs are transformed into outputs or production. In simpler terms, TFP gauges how well an economy uses its resources (labor and capital) to produce goods and services.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>The negative value of -28% for TFP in Cambodia indicates a decline in the efficiency with which inputs (both labor and capital) are used to generate outputs. This means that despite having certain amounts of labor and capital, the output produced from these resources has decreased or not grown as expected.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="KeyMessages"/>
+      <sheetName val="Urbanisation"/>
+      <sheetName val="Poverty"/>
+      <sheetName val="Povery-Electricity"/>
+      <sheetName val="EconMobility"/>
+      <sheetName val="IncomeSources"/>
+      <sheetName val="Growth Sector %"/>
+      <sheetName val="Growth TPF"/>
+      <sheetName val="EconTransfm"/>
+      <sheetName val="SectorWorker"/>
+      <sheetName val="Labor_Prodc"/>
+      <sheetName val="Export"/>
+      <sheetName val="FirmCost"/>
+      <sheetName val="Logistics"/>
+      <sheetName val="Electricity"/>
+      <sheetName val="RoadNtw"/>
+      <sheetName val="TradeBal_Detailed"/>
+      <sheetName val="Export Detailed"/>
+      <sheetName val="Import_Detailed"/>
+      <sheetName val="Investment_Detailed"/>
+      <sheetName val="Construction_Detailed"/>
+      <sheetName val="Energy Global"/>
+      <sheetName val="RS4 M&amp;E"/>
+      <sheetName val="ADB-CAM"/>
+      <sheetName val="ILO LaborProd"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="5">
+          <cell r="E5" t="str">
+            <v>WB (2023)</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6">
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>Source: WB's SCD 2023</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B11CA73F-C9AB-F244-97F1-1E1C097441CB}" name="Table17" displayName="Table17" ref="A3:F11" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" headerRowCellStyle="Comma" dataCellStyle="Comma">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B11CA73F-C9AB-F244-97F1-1E1C097441CB}" name="Table17" displayName="Table17" ref="A3:F11" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25" headerRowCellStyle="Comma" dataCellStyle="Comma">
   <autoFilter ref="A3:F11" xr:uid="{B11CA73F-C9AB-F244-97F1-1E1C097441CB}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:F11">
     <sortCondition descending="1" ref="F4:F11"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{09784525-A052-E441-A1BC-FBBE4527445E}" name="Export in million USD" dataDxfId="10" totalsRowDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{E0A8338B-488B-8D43-9BAA-74ECDFB12153}" name="2018" dataDxfId="8" totalsRowDxfId="9" dataCellStyle="Comma" totalsRowCellStyle="Comma"/>
-    <tableColumn id="3" xr3:uid="{760EBB9A-05F8-F845-B263-EBAE06C36DC9}" name="2019" dataDxfId="6" totalsRowDxfId="7" dataCellStyle="Comma" totalsRowCellStyle="Comma"/>
-    <tableColumn id="4" xr3:uid="{51377408-497F-0A4C-A37E-FA0543E3B764}" name="2020" dataDxfId="4" totalsRowDxfId="5" dataCellStyle="Comma" totalsRowCellStyle="Comma"/>
-    <tableColumn id="5" xr3:uid="{B800C3B5-60D6-E94D-A8C6-0EE147A106D3}" name="2021" dataDxfId="2" totalsRowDxfId="3" dataCellStyle="Comma" totalsRowCellStyle="Comma"/>
-    <tableColumn id="6" xr3:uid="{11366020-CF85-EF45-AB36-7832C84AAFEB}" name="2022" dataDxfId="0" totalsRowDxfId="1" dataCellStyle="Comma" totalsRowCellStyle="Comma"/>
+    <tableColumn id="1" xr3:uid="{09784525-A052-E441-A1BC-FBBE4527445E}" name="Export in million USD" dataDxfId="24" totalsRowDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{E0A8338B-488B-8D43-9BAA-74ECDFB12153}" name="2018" dataDxfId="22" totalsRowDxfId="21" dataCellStyle="Comma" totalsRowCellStyle="Comma"/>
+    <tableColumn id="3" xr3:uid="{760EBB9A-05F8-F845-B263-EBAE06C36DC9}" name="2019" dataDxfId="20" totalsRowDxfId="19" dataCellStyle="Comma" totalsRowCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{51377408-497F-0A4C-A37E-FA0543E3B764}" name="2020" dataDxfId="18" totalsRowDxfId="17" dataCellStyle="Comma" totalsRowCellStyle="Comma"/>
+    <tableColumn id="5" xr3:uid="{B800C3B5-60D6-E94D-A8C6-0EE147A106D3}" name="2021" dataDxfId="16" totalsRowDxfId="15" dataCellStyle="Comma" totalsRowCellStyle="Comma"/>
+    <tableColumn id="6" xr3:uid="{11366020-CF85-EF45-AB36-7832C84AAFEB}" name="2022" dataDxfId="14" totalsRowDxfId="13" dataCellStyle="Comma" totalsRowCellStyle="Comma"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8FBF3B47-43A4-494D-A20D-66E55764A09C}" name="Table7" displayName="Table7" ref="A3:D8" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+  <autoFilter ref="A3:D8" xr:uid="{8128314F-0B28-4731-A6B4-89F7A0525571}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{D8BFE214-AE7D-F846-ABF1-C3595A295A30}" name="Sector" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{E87CF047-2AC7-284E-940E-1F0D9D2287CF}" name="2012-16" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{51056BA1-DCDA-E641-8FDE-50E3B8FE62DC}" name="2017-19" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{657FD480-C946-1644-8111-FB0155313D04}" name="2017-22" dataDxfId="7"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{0C729556-C225-4045-9B0D-028D0DCA934D}" name="Table85" displayName="Table85" ref="A3:D7" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A3:D7" xr:uid="{61B40A9F-13D8-42D0-8E63-A3B18CF05BD3}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{09EA5A34-7736-154B-B9A2-5912294B0875}" name="Production factors" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{A1A15154-14CD-0B49-9F9C-78EA1386A980}" name="2012-16" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{C875C2E2-CEAD-EB44-BD6E-8CCA82C9B07C}" name="2017-19 (pre-Covid)" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{03ED556A-E355-A44A-B45F-46450AFCD90B}" name="2017-22 (inc. Covid)" dataDxfId="1" dataCellStyle="Per cent"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{CD8396AA-2C08-2C45-97B7-EB6D1AE26F25}" name="Table20" displayName="Table20" ref="A3:B10" totalsRowShown="0">
+  <autoFilter ref="A3:B10" xr:uid="{DE6EBB22-210D-4313-8348-4BBFDE779EF0}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:B10">
+    <sortCondition ref="B4:B10"/>
+  </sortState>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{7280F3A5-7BA1-1546-84E0-320408B46F32}" name="Country"/>
+    <tableColumn id="2" xr3:uid="{0241F4AE-7B47-C24A-9B89-C71FC368EC7C}" name="Cost of logistics as % of GDP (2020)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -823,11 +1467,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA8A5B79-2C1F-7C44-8182-10B4CDCD65BE}">
-  <dimension ref="A1:F13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA8A5B79-2C1F-7C44-8182-10B4CDCD65BE}">
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1036,6 +1680,403 @@
       </c>
       <c r="B13" s="7"/>
     </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="8"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="10"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="8"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="10"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="8"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="10"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="8"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="10"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C812735-0EE0-8941-95BE-C0378A30C789}">
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView zoomScale="87" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="27.83203125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="14" style="13" customWidth="1"/>
+    <col min="4" max="4" width="13" style="13" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" style="13" customWidth="1"/>
+    <col min="6" max="7" width="13.5" style="13" customWidth="1"/>
+    <col min="8" max="16384" width="8.83203125" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.15">
+      <c r="A1" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+    </row>
+    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.15">
+      <c r="A3" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.15">
+      <c r="A4" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="16">
+        <v>0.04</v>
+      </c>
+      <c r="C4" s="16">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D4" s="16">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.15">
+      <c r="A5" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="16">
+        <v>0.05</v>
+      </c>
+      <c r="C5" s="16">
+        <v>0.01</v>
+      </c>
+      <c r="D5" s="16">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.15">
+      <c r="A6" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="16">
+        <v>0.47</v>
+      </c>
+      <c r="C6" s="16">
+        <v>0.39</v>
+      </c>
+      <c r="D6" s="16">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="14" x14ac:dyDescent="0.15">
+      <c r="A7" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="16">
+        <v>0.24</v>
+      </c>
+      <c r="C7" s="16">
+        <v>0.33</v>
+      </c>
+      <c r="D7" s="16">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.15">
+      <c r="A8" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="C8" s="16">
+        <v>0.19</v>
+      </c>
+      <c r="D8" s="16">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9EAAE5B-65EA-ED4C-9E74-D7018365BCD7}">
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="14" style="13" customWidth="1"/>
+    <col min="4" max="4" width="13" style="13" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" style="13" customWidth="1"/>
+    <col min="6" max="7" width="13.5" style="13" customWidth="1"/>
+    <col min="8" max="16384" width="8.83203125" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.15">
+      <c r="A1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+    </row>
+    <row r="3" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+      <c r="A3" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+      <c r="A4" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="20">
+        <v>0.05</v>
+      </c>
+      <c r="C4" s="20">
+        <v>0</v>
+      </c>
+      <c r="D4" s="21">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+      <c r="A5" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="20">
+        <v>0.19</v>
+      </c>
+      <c r="C5" s="20">
+        <v>0.15</v>
+      </c>
+      <c r="D5" s="21">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+      <c r="A6" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="20">
+        <v>1.04</v>
+      </c>
+      <c r="C6" s="20">
+        <v>0.9</v>
+      </c>
+      <c r="D6" s="21">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+      <c r="A7" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="20">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="C7" s="20">
+        <v>-0.05</v>
+      </c>
+      <c r="D7" s="21">
+        <v>-0.45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="13" t="str">
+        <f>'[1]Growth Sector %'!$A$10</f>
+        <v>Source: WB's SCD 2023</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E19A259-CDDB-D444-992D-E5F659C82BC5}">
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="14.83203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="14" style="13" customWidth="1"/>
+    <col min="4" max="4" width="13" style="13" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" style="13" customWidth="1"/>
+    <col min="6" max="7" width="13.5" style="13" customWidth="1"/>
+    <col min="8" max="16384" width="8.83203125" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.15">
+      <c r="A1" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="22">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="22">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="22">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="22">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="22">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="22">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="22">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="13" t="str">
+        <f>[1]KeyMessages!E5</f>
+        <v>WB (2023)</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
